--- a/tables/SCAR/SCAR_data.xlsx
+++ b/tables/SCAR/SCAR_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="BC" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="OC" sheetId="8" r:id="rId8"/>
     <sheet name="SO2" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -929,28 +929,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P182"/>
+  <dimension ref="A1:R182"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1997</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -997,7 +1002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1046,8 +1051,16 @@
       <c r="P6">
         <v>254449063024.94601</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <f>AVERAGE(P6, P16, P26, P36, P46, P56, P66, P76, P86, P96, P106, P116, P126, P136, P146, P156, P166, P176)</f>
+        <v>234174625031.16733</v>
+      </c>
+      <c r="R6">
+        <f>Q6/1000000000</f>
+        <v>234.17462503116732</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1096,8 +1109,16 @@
       <c r="P7">
         <v>23369727815.583</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7">
+        <f t="shared" ref="Q7:Q12" si="0">AVERAGE(P7, P17, P27, P37, P47, P57, P67, P77, P87, P97, P107, P117, P127, P137, P147, P157, P167, P177)</f>
+        <v>35762934209.952393</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ref="R7:R12" si="1">Q7/1000000000</f>
+        <v>35.762934209952391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1146,8 +1167,16 @@
       <c r="P8">
         <v>13707305731.219999</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>11677664414.628025</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>11.677664414628024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1196,8 +1225,16 @@
       <c r="P9">
         <v>148987315105.957</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>75109002819.010391</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>75.109002819010385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1246,8 +1283,16 @@
       <c r="P10">
         <v>8464364268.3870697</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>1215459424.9805481</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>1.2154594249805482</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1296,8 +1341,16 @@
       <c r="P11">
         <v>57050084779.116699</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>48368435410.540337</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>48.368435410540336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1346,13 +1399,21 @@
       <c r="P12">
         <v>506027860725.211</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>406308121310.27905</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>406.30812131027903</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1998</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>2</v>
       </c>
@@ -1399,7 +1460,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -59003,7 +59064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
